--- a/data/option/BABA_2021-06-12_put_revised.xlsx
+++ b/data/option/BABA_2021-06-12_put_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lastPrice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
@@ -465,18 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -485,18 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C3" t="n">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F3" t="n">
         <v>65</v>
       </c>
     </row>
@@ -505,18 +494,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F4" t="n">
         <v>775</v>
       </c>
     </row>
@@ -525,18 +511,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="C5" t="n">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0.02</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F5" t="n">
         <v>387</v>
       </c>
     </row>
@@ -545,18 +528,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F6" t="n">
         <v>47</v>
       </c>
     </row>
@@ -565,18 +545,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="C7" t="n">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0.05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F7" t="n">
         <v>305</v>
       </c>
     </row>
@@ -585,18 +562,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="C8" t="n">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F8" t="n">
         <v>185</v>
       </c>
     </row>
@@ -605,18 +579,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="C9" t="n">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F9" t="n">
         <v>267</v>
       </c>
     </row>
@@ -625,18 +596,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="C10" t="n">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F10" t="n">
         <v>223</v>
       </c>
     </row>
@@ -645,18 +613,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="C11" t="n">
-        <v>190</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F11" t="n">
         <v>432</v>
       </c>
     </row>
@@ -665,18 +630,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>192.5</v>
       </c>
       <c r="C12" t="n">
-        <v>192.5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>0.11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F12" t="n">
         <v>69</v>
       </c>
     </row>
@@ -685,18 +647,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="C13" t="n">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>0.15</v>
       </c>
       <c r="E13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F13" t="n">
         <v>211</v>
       </c>
     </row>
@@ -705,18 +664,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>197.5</v>
       </c>
       <c r="C14" t="n">
-        <v>197.5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>0.19</v>
       </c>
       <c r="E14" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F14" t="n">
         <v>289</v>
       </c>
     </row>
@@ -725,18 +681,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="C15" t="n">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>0.26</v>
       </c>
       <c r="E15" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F15" t="n">
         <v>1136</v>
       </c>
     </row>
@@ -745,18 +698,15 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38</v>
+        <v>202.5</v>
       </c>
       <c r="C16" t="n">
-        <v>202.5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F16" t="n">
         <v>826</v>
       </c>
     </row>
@@ -765,18 +715,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="C17" t="n">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>0.66</v>
       </c>
       <c r="E17" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F17" t="n">
         <v>1515</v>
       </c>
     </row>
@@ -785,18 +732,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>207.5</v>
       </c>
       <c r="C18" t="n">
-        <v>207.5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>1.14</v>
       </c>
       <c r="E18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F18" t="n">
         <v>982</v>
       </c>
     </row>
@@ -805,18 +749,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="C19" t="n">
-        <v>210</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>1.97</v>
       </c>
       <c r="E19" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F19" t="n">
         <v>4139</v>
       </c>
     </row>
@@ -825,18 +766,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>212.5</v>
       </c>
       <c r="C20" t="n">
-        <v>212.5</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3.27</v>
       </c>
       <c r="E20" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F20" t="n">
         <v>1724</v>
       </c>
     </row>
@@ -845,18 +783,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="C21" t="n">
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="E21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F21" t="n">
         <v>2672</v>
       </c>
     </row>
@@ -865,18 +800,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44</v>
+        <v>217.5</v>
       </c>
       <c r="C22" t="n">
-        <v>217.5</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="E22" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F22" t="n">
         <v>716</v>
       </c>
     </row>
@@ -885,18 +817,15 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>9.06</v>
       </c>
       <c r="E23" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F23" t="n">
         <v>798</v>
       </c>
     </row>
@@ -905,18 +834,15 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46</v>
+        <v>222.5</v>
       </c>
       <c r="C24" t="n">
-        <v>222.5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>11.62</v>
       </c>
       <c r="E24" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="F24" t="n">
         <v>465</v>
       </c>
     </row>
@@ -925,18 +851,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="C25" t="n">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>13.98</v>
       </c>
       <c r="E25" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="F25" t="n">
         <v>55</v>
       </c>
     </row>
@@ -945,18 +868,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>227.5</v>
       </c>
       <c r="C26" t="n">
-        <v>227.5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="E26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -965,18 +885,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="C27" t="n">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>18.61</v>
       </c>
       <c r="E27" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="F27" t="n">
         <v>134</v>
       </c>
     </row>
@@ -985,18 +902,15 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>232.5</v>
       </c>
       <c r="C28" t="n">
-        <v>232.5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>21</v>
-      </c>
-      <c r="F28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1005,18 +919,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="C29" t="n">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>23.75</v>
       </c>
       <c r="E29" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="F29" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1025,18 +936,15 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52</v>
+        <v>237.5</v>
       </c>
       <c r="C30" t="n">
-        <v>237.5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>26.25</v>
       </c>
       <c r="E30" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="F30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1045,18 +953,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="C31" t="n">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>28.53</v>
       </c>
       <c r="E31" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="F31" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1065,18 +970,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="C32" t="n">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>33.55</v>
       </c>
       <c r="E32" t="n">
-        <v>33.55</v>
-      </c>
-      <c r="F32" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1085,18 +987,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="C33" t="n">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>38.65</v>
       </c>
       <c r="E33" t="n">
-        <v>38.65</v>
-      </c>
-      <c r="F33" t="n">
         <v>96</v>
       </c>
     </row>
@@ -1105,18 +1004,15 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="C34" t="n">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>43.38</v>
       </c>
       <c r="E34" t="n">
-        <v>43.38</v>
-      </c>
-      <c r="F34" t="n">
         <v>24</v>
       </c>
     </row>
@@ -1125,18 +1021,15 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="C35" t="n">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>48.46</v>
       </c>
       <c r="E35" t="n">
-        <v>48.46</v>
-      </c>
-      <c r="F35" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1145,18 +1038,15 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="C36" t="n">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>58.39</v>
       </c>
       <c r="E36" t="n">
-        <v>58.39</v>
-      </c>
-      <c r="F36" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1165,18 +1055,15 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C37" t="n">
-        <v>275</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>63.45</v>
       </c>
       <c r="E37" t="n">
-        <v>63.45</v>
-      </c>
-      <c r="F37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1185,18 +1072,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="C38" t="n">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>68.45</v>
       </c>
       <c r="E38" t="n">
-        <v>68.45</v>
-      </c>
-      <c r="F38" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1205,18 +1089,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="C39" t="n">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>78.94</v>
       </c>
       <c r="E39" t="n">
-        <v>78.94</v>
-      </c>
-      <c r="F39" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1225,18 +1106,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="C40" t="n">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>88.37</v>
       </c>
       <c r="E40" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="F40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1245,18 +1123,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="C41" t="n">
-        <v>310</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>98.64</v>
       </c>
       <c r="E41" t="n">
-        <v>98.64</v>
-      </c>
-      <c r="F41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1265,18 +1140,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C42" t="n">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>0.02</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1285,18 +1157,15 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C43" t="n">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>0.02</v>
       </c>
       <c r="E43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1305,18 +1174,15 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C44" t="n">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>0.11</v>
       </c>
       <c r="E44" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F44" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1325,18 +1191,15 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="C45" t="n">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>0.16</v>
       </c>
       <c r="E45" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F45" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1345,18 +1208,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C46" t="n">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
+        <v>0.19</v>
       </c>
       <c r="E46" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F46" t="n">
         <v>60</v>
       </c>
     </row>
@@ -1365,18 +1225,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>102</v>
+        <v>187.5</v>
       </c>
       <c r="C47" t="n">
-        <v>187.5</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>0.21</v>
       </c>
       <c r="E47" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F47" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1385,18 +1242,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="C48" t="n">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>13</v>
+        <v>0.26</v>
       </c>
       <c r="E48" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F48" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1405,18 +1259,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C49" t="n">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
+        <v>0.39</v>
       </c>
       <c r="E49" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F49" t="n">
         <v>66</v>
       </c>
     </row>
@@ -1425,18 +1276,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>106</v>
+        <v>197.5</v>
       </c>
       <c r="C50" t="n">
-        <v>197.5</v>
+        <v>13</v>
       </c>
       <c r="D50" t="n">
-        <v>13</v>
+        <v>0.54</v>
       </c>
       <c r="E50" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F50" t="n">
         <v>33</v>
       </c>
     </row>
@@ -1445,18 +1293,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>0.75</v>
       </c>
       <c r="E51" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F51" t="n">
         <v>149</v>
       </c>
     </row>
@@ -1465,18 +1310,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>108</v>
+        <v>202.5</v>
       </c>
       <c r="C52" t="n">
-        <v>202.5</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>1.05</v>
       </c>
       <c r="E52" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F52" t="n">
         <v>166</v>
       </c>
     </row>
@@ -1485,18 +1327,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>1.48</v>
       </c>
       <c r="E53" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="F53" t="n">
         <v>258</v>
       </c>
     </row>
@@ -1505,18 +1344,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>110</v>
+        <v>207.5</v>
       </c>
       <c r="C54" t="n">
-        <v>207.5</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>2.17</v>
       </c>
       <c r="E54" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="F54" t="n">
         <v>586</v>
       </c>
     </row>
@@ -1525,18 +1361,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="C55" t="n">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="E55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F55" t="n">
         <v>343</v>
       </c>
     </row>
@@ -1545,18 +1378,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>112</v>
+        <v>212.5</v>
       </c>
       <c r="C56" t="n">
-        <v>212.5</v>
+        <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>4.45</v>
       </c>
       <c r="E56" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F56" t="n">
         <v>557</v>
       </c>
     </row>
@@ -1565,18 +1395,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="C57" t="n">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>13</v>
+        <v>5.95</v>
       </c>
       <c r="E57" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F57" t="n">
         <v>609</v>
       </c>
     </row>
@@ -1585,18 +1412,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>114</v>
+        <v>217.5</v>
       </c>
       <c r="C58" t="n">
-        <v>217.5</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>7.76</v>
       </c>
       <c r="E58" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F58" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1605,18 +1429,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C59" t="n">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>9.85</v>
       </c>
       <c r="E59" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F59" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1625,18 +1446,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>116</v>
+        <v>222.5</v>
       </c>
       <c r="C60" t="n">
-        <v>222.5</v>
+        <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="E60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F60" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1645,18 +1463,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="C61" t="n">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="D61" t="n">
-        <v>13</v>
+        <v>14.32</v>
       </c>
       <c r="E61" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="F61" t="n">
         <v>49</v>
       </c>
     </row>
@@ -1665,18 +1480,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>118</v>
+        <v>227.5</v>
       </c>
       <c r="C62" t="n">
-        <v>227.5</v>
+        <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>13</v>
+        <v>16.82</v>
       </c>
       <c r="E62" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="F62" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1685,18 +1497,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="C63" t="n">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>18.9</v>
       </c>
       <c r="E63" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F63" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1705,18 +1514,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="C64" t="n">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>23.75</v>
       </c>
       <c r="E64" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="F64" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1725,18 +1531,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>122</v>
+        <v>237.5</v>
       </c>
       <c r="C65" t="n">
-        <v>237.5</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>13</v>
+        <v>26.1</v>
       </c>
       <c r="E65" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1745,18 +1548,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="C66" t="n">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>33.6</v>
       </c>
       <c r="E66" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="F66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1765,18 +1565,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="C67" t="n">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="D67" t="n">
-        <v>13</v>
+        <v>38.6</v>
       </c>
       <c r="E67" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="F67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1785,18 +1582,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C68" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>0.09</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1805,18 +1599,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C69" t="n">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>0.15</v>
       </c>
       <c r="E69" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1825,18 +1616,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C70" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>0.19</v>
       </c>
       <c r="E70" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F70" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1845,18 +1633,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C71" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>0.28</v>
       </c>
       <c r="E71" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F71" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1865,18 +1650,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C72" t="n">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>0.36</v>
       </c>
       <c r="E72" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1885,18 +1667,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C73" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F73" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1905,18 +1684,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>150</v>
+        <v>192.5</v>
       </c>
       <c r="C74" t="n">
-        <v>192.5</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>0.57</v>
       </c>
       <c r="E74" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F74" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1925,18 +1701,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="C75" t="n">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>0.72</v>
       </c>
       <c r="E75" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F75" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1945,18 +1718,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>152</v>
+        <v>197.5</v>
       </c>
       <c r="C76" t="n">
-        <v>197.5</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F76" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1965,18 +1735,15 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C77" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>1.23</v>
       </c>
       <c r="E77" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F77" t="n">
         <v>102</v>
       </c>
     </row>
@@ -1985,18 +1752,15 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>154</v>
+        <v>202.5</v>
       </c>
       <c r="C78" t="n">
-        <v>202.5</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>1.63</v>
       </c>
       <c r="E78" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F78" t="n">
         <v>24</v>
       </c>
     </row>
@@ -2005,18 +1769,15 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="C79" t="n">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>2.25</v>
       </c>
       <c r="E79" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F79" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2025,18 +1786,15 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>156</v>
+        <v>207.5</v>
       </c>
       <c r="C80" t="n">
-        <v>207.5</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>3.06</v>
       </c>
       <c r="E80" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F80" t="n">
         <v>246</v>
       </c>
     </row>
@@ -2045,18 +1803,15 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="C81" t="n">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>4.06</v>
       </c>
       <c r="E81" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="F81" t="n">
         <v>132</v>
       </c>
     </row>
@@ -2065,18 +1820,15 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>158</v>
+        <v>212.5</v>
       </c>
       <c r="C82" t="n">
-        <v>212.5</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>5.24</v>
       </c>
       <c r="E82" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="F82" t="n">
         <v>238</v>
       </c>
     </row>
@@ -2085,18 +1837,15 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="C83" t="n">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>6.91</v>
       </c>
       <c r="E83" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F83" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2105,18 +1854,15 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>160</v>
+        <v>217.5</v>
       </c>
       <c r="C84" t="n">
-        <v>217.5</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="E84" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F84" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2125,18 +1871,15 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="C85" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>20</v>
+        <v>10.4</v>
       </c>
       <c r="E85" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="F85" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2145,18 +1888,15 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>162</v>
+        <v>222.5</v>
       </c>
       <c r="C86" t="n">
-        <v>222.5</v>
+        <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>12.17</v>
       </c>
       <c r="E86" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2165,18 +1905,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="C87" t="n">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>14.94</v>
       </c>
       <c r="E87" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="F87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2185,18 +1922,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="C88" t="n">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="E88" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F88" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2205,18 +1939,15 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>168</v>
+        <v>237.5</v>
       </c>
       <c r="C89" t="n">
-        <v>237.5</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>25.88</v>
       </c>
       <c r="E89" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="F89" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2225,18 +1956,15 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="C90" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>28.45</v>
       </c>
       <c r="E90" t="n">
-        <v>28.45</v>
-      </c>
-      <c r="F90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2245,18 +1973,15 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C91" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>38.32</v>
       </c>
       <c r="E91" t="n">
-        <v>38.32</v>
-      </c>
-      <c r="F91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2265,18 +1990,15 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C92" t="n">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>27</v>
+        <v>0.32</v>
       </c>
       <c r="E92" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F92" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2285,18 +2007,15 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C93" t="n">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="D93" t="n">
-        <v>27</v>
+        <v>0.45</v>
       </c>
       <c r="E93" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2308,15 +2027,12 @@
         <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="D94" t="n">
-        <v>27</v>
+        <v>0.67</v>
       </c>
       <c r="E94" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F94" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2325,18 +2041,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C95" t="n">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="D95" t="n">
-        <v>27</v>
+        <v>1.03</v>
       </c>
       <c r="E95" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F95" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2345,18 +2058,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>193</v>
+        <v>197.5</v>
       </c>
       <c r="C96" t="n">
-        <v>197.5</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>27</v>
+        <v>1.3</v>
       </c>
       <c r="E96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2365,18 +2075,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C97" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>1.7</v>
       </c>
       <c r="E97" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F97" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2385,18 +2092,15 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>195</v>
+        <v>202.5</v>
       </c>
       <c r="C98" t="n">
-        <v>202.5</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
-        <v>27</v>
+        <v>2.16</v>
       </c>
       <c r="E98" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F98" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2405,18 +2109,15 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C99" t="n">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="D99" t="n">
-        <v>27</v>
+        <v>2.86</v>
       </c>
       <c r="E99" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="F99" t="n">
         <v>58</v>
       </c>
     </row>
@@ -2425,18 +2126,15 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>197</v>
+        <v>207.5</v>
       </c>
       <c r="C100" t="n">
-        <v>207.5</v>
+        <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>27</v>
+        <v>3.58</v>
       </c>
       <c r="E100" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="F100" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2445,18 +2143,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C101" t="n">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="D101" t="n">
-        <v>27</v>
+        <v>4.75</v>
       </c>
       <c r="E101" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F101" t="n">
         <v>57</v>
       </c>
     </row>
@@ -2465,18 +2160,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>199</v>
+        <v>212.5</v>
       </c>
       <c r="C102" t="n">
-        <v>212.5</v>
+        <v>27</v>
       </c>
       <c r="D102" t="n">
-        <v>27</v>
+        <v>6.08</v>
       </c>
       <c r="E102" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F102" t="n">
         <v>51</v>
       </c>
     </row>
@@ -2485,18 +2177,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C103" t="n">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="D103" t="n">
-        <v>27</v>
+        <v>7.57</v>
       </c>
       <c r="E103" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F103" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2505,18 +2194,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>201</v>
+        <v>217.5</v>
       </c>
       <c r="C104" t="n">
-        <v>217.5</v>
+        <v>27</v>
       </c>
       <c r="D104" t="n">
-        <v>27</v>
+        <v>9.1</v>
       </c>
       <c r="E104" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2525,18 +2211,15 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C105" t="n">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="D105" t="n">
-        <v>27</v>
+        <v>10.88</v>
       </c>
       <c r="E105" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="F105" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2545,18 +2228,15 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C106" t="n">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="D106" t="n">
-        <v>27</v>
+        <v>19.33</v>
       </c>
       <c r="E106" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="F106" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2565,18 +2245,15 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>208</v>
+        <v>237.5</v>
       </c>
       <c r="C107" t="n">
-        <v>237.5</v>
+        <v>27</v>
       </c>
       <c r="D107" t="n">
-        <v>27</v>
+        <v>27.08</v>
       </c>
       <c r="E107" t="n">
-        <v>27.08</v>
-      </c>
-      <c r="F107" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2585,18 +2262,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="C108" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="D108" t="n">
-        <v>34</v>
+        <v>0.04</v>
       </c>
       <c r="E108" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F108" t="n">
         <v>22</v>
       </c>
     </row>
@@ -2605,18 +2279,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="C109" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="D109" t="n">
-        <v>34</v>
+        <v>0.08</v>
       </c>
       <c r="E109" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F109" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2625,18 +2296,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="C110" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D110" t="n">
-        <v>34</v>
+        <v>0.14</v>
       </c>
       <c r="E110" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F110" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2645,18 +2313,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="C111" t="n">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D111" t="n">
-        <v>34</v>
+        <v>0.17</v>
       </c>
       <c r="E111" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F111" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2665,18 +2330,15 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="C112" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
-        <v>34</v>
+        <v>0.19</v>
       </c>
       <c r="E112" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F112" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2685,18 +2347,15 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="C113" t="n">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
-        <v>34</v>
+        <v>0.22</v>
       </c>
       <c r="E113" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F113" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2705,18 +2364,15 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="C114" t="n">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="D114" t="n">
-        <v>34</v>
+        <v>0.29</v>
       </c>
       <c r="E114" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F114" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2725,18 +2381,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="C115" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="D115" t="n">
-        <v>34</v>
+        <v>0.4</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F115" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2745,18 +2398,15 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="C116" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="D116" t="n">
-        <v>34</v>
+        <v>0.5</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F116" t="n">
         <v>181</v>
       </c>
     </row>
@@ -2765,18 +2415,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="C117" t="n">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>0.66</v>
       </c>
       <c r="E117" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F117" t="n">
         <v>147</v>
       </c>
     </row>
@@ -2785,18 +2432,15 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="C118" t="n">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="D118" t="n">
-        <v>34</v>
+        <v>0.93</v>
       </c>
       <c r="E118" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F118" t="n">
         <v>192</v>
       </c>
     </row>
@@ -2805,18 +2449,15 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C119" t="n">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="D119" t="n">
-        <v>34</v>
+        <v>1.41</v>
       </c>
       <c r="E119" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="F119" t="n">
         <v>1843</v>
       </c>
     </row>
@@ -2825,18 +2466,15 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="C120" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="D120" t="n">
-        <v>34</v>
+        <v>2.19</v>
       </c>
       <c r="E120" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F120" t="n">
         <v>1972</v>
       </c>
     </row>
@@ -2845,18 +2483,15 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="C121" t="n">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="D121" t="n">
-        <v>34</v>
+        <v>3.61</v>
       </c>
       <c r="E121" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="F121" t="n">
         <v>414</v>
       </c>
     </row>
@@ -2865,18 +2500,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C122" t="n">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
-        <v>34</v>
+        <v>5.47</v>
       </c>
       <c r="E122" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="F122" t="n">
         <v>4150</v>
       </c>
     </row>
@@ -2885,18 +2517,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C123" t="n">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="D123" t="n">
-        <v>34</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F123" t="n">
         <v>505</v>
       </c>
     </row>
@@ -2905,18 +2534,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C124" t="n">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="D124" t="n">
-        <v>34</v>
+        <v>11.57</v>
       </c>
       <c r="E124" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="F124" t="n">
         <v>110</v>
       </c>
     </row>
@@ -2925,18 +2551,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C125" t="n">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="D125" t="n">
-        <v>34</v>
+        <v>15.62</v>
       </c>
       <c r="E125" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="F125" t="n">
         <v>51</v>
       </c>
     </row>
@@ -2945,18 +2568,15 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C126" t="n">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="D126" t="n">
-        <v>34</v>
+        <v>19.8</v>
       </c>
       <c r="E126" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F126" t="n">
         <v>61</v>
       </c>
     </row>
@@ -2965,18 +2585,15 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C127" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="D127" t="n">
-        <v>34</v>
+        <v>29.15</v>
       </c>
       <c r="E127" t="n">
-        <v>29.15</v>
-      </c>
-      <c r="F127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,18 +2602,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C128" t="n">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="D128" t="n">
-        <v>34</v>
+        <v>34.15</v>
       </c>
       <c r="E128" t="n">
-        <v>34.15</v>
-      </c>
-      <c r="F128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3005,18 +2619,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C129" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="D129" t="n">
-        <v>34</v>
+        <v>38.76</v>
       </c>
       <c r="E129" t="n">
-        <v>38.76</v>
-      </c>
-      <c r="F129" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3025,18 +2636,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C130" t="n">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="D130" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E130" t="n">
-        <v>44</v>
-      </c>
-      <c r="F130" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3045,18 +2653,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C131" t="n">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="D131" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E131" t="n">
-        <v>54</v>
-      </c>
-      <c r="F131" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3065,18 +2670,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C132" t="n">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="D132" t="n">
-        <v>34</v>
+        <v>58.54</v>
       </c>
       <c r="E132" t="n">
-        <v>58.54</v>
-      </c>
-      <c r="F132" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3085,18 +2687,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C133" t="n">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c r="D133" t="n">
-        <v>34</v>
+        <v>68.47</v>
       </c>
       <c r="E133" t="n">
-        <v>68.47</v>
-      </c>
-      <c r="F133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3105,18 +2704,15 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="C134" t="n">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="D134" t="n">
-        <v>34</v>
+        <v>78.45</v>
       </c>
       <c r="E134" t="n">
-        <v>78.45</v>
-      </c>
-      <c r="F134" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3125,18 +2721,15 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="C135" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="D135" t="n">
-        <v>34</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="F135" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3145,18 +2738,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="C136" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="D136" t="n">
-        <v>41</v>
+        <v>0.55</v>
       </c>
       <c r="E136" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F136" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3165,18 +2755,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="C137" t="n">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="D137" t="n">
-        <v>41</v>
+        <v>1.26</v>
       </c>
       <c r="E137" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="F137" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3185,18 +2772,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>282</v>
+        <v>192.5</v>
       </c>
       <c r="C138" t="n">
-        <v>192.5</v>
+        <v>41</v>
       </c>
       <c r="D138" t="n">
-        <v>41</v>
+        <v>1.55</v>
       </c>
       <c r="E138" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="F138" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3205,18 +2789,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="C139" t="n">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="D139" t="n">
-        <v>41</v>
+        <v>1.9</v>
       </c>
       <c r="E139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F139" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3225,18 +2806,15 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>284</v>
+        <v>197.5</v>
       </c>
       <c r="C140" t="n">
-        <v>197.5</v>
+        <v>41</v>
       </c>
       <c r="D140" t="n">
-        <v>41</v>
+        <v>2.23</v>
       </c>
       <c r="E140" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="F140" t="n">
         <v>28</v>
       </c>
     </row>
@@ -3245,18 +2823,15 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C141" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="D141" t="n">
-        <v>41</v>
+        <v>2.79</v>
       </c>
       <c r="E141" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="F141" t="n">
         <v>89</v>
       </c>
     </row>
@@ -3265,18 +2840,15 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>286</v>
+        <v>202.5</v>
       </c>
       <c r="C142" t="n">
-        <v>202.5</v>
+        <v>41</v>
       </c>
       <c r="D142" t="n">
-        <v>41</v>
+        <v>3.55</v>
       </c>
       <c r="E142" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F142" t="n">
         <v>106</v>
       </c>
     </row>
@@ -3285,18 +2857,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="C143" t="n">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="D143" t="n">
-        <v>41</v>
+        <v>4.3</v>
       </c>
       <c r="E143" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F143" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3305,18 +2874,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>288</v>
+        <v>207.5</v>
       </c>
       <c r="C144" t="n">
-        <v>207.5</v>
+        <v>41</v>
       </c>
       <c r="D144" t="n">
-        <v>41</v>
+        <v>5.23</v>
       </c>
       <c r="E144" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="F144" t="n">
         <v>107</v>
       </c>
     </row>
@@ -3325,18 +2891,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="C145" t="n">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="D145" t="n">
-        <v>41</v>
+        <v>6.33</v>
       </c>
       <c r="E145" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="F145" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3345,18 +2908,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>290</v>
+        <v>212.5</v>
       </c>
       <c r="C146" t="n">
-        <v>212.5</v>
+        <v>41</v>
       </c>
       <c r="D146" t="n">
-        <v>41</v>
+        <v>7.45</v>
       </c>
       <c r="E146" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F146" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3365,18 +2925,15 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="C147" t="n">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D147" t="n">
-        <v>41</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E147" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F147" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3385,18 +2942,15 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="C148" t="n">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="D148" t="n">
-        <v>41</v>
+        <v>12.3</v>
       </c>
       <c r="E148" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F148" t="n">
         <v>51</v>
       </c>
     </row>
@@ -3405,18 +2959,15 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>295</v>
+        <v>227.5</v>
       </c>
       <c r="C149" t="n">
-        <v>227.5</v>
+        <v>41</v>
       </c>
       <c r="D149" t="n">
-        <v>41</v>
+        <v>18.2</v>
       </c>
       <c r="E149" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F149" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3425,18 +2976,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>299</v>
+        <v>237.5</v>
       </c>
       <c r="C150" t="n">
-        <v>237.5</v>
+        <v>41</v>
       </c>
       <c r="D150" t="n">
-        <v>41</v>
+        <v>27.42</v>
       </c>
       <c r="E150" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="F150" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3445,18 +2993,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="C151" t="n">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="D151" t="n">
-        <v>69</v>
+        <v>0.2</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F151" t="n">
         <v>89</v>
       </c>
     </row>
@@ -3465,18 +3010,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="C152" t="n">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="D152" t="n">
-        <v>69</v>
+        <v>0.38</v>
       </c>
       <c r="E152" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3485,18 +3027,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="C153" t="n">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="D153" t="n">
-        <v>69</v>
+        <v>0.62</v>
       </c>
       <c r="E153" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F153" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3505,18 +3044,15 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="C154" t="n">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="D154" t="n">
-        <v>69</v>
+        <v>0.78</v>
       </c>
       <c r="E154" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F154" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3525,18 +3061,15 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="C155" t="n">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="D155" t="n">
-        <v>69</v>
+        <v>0.95</v>
       </c>
       <c r="E155" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F155" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3545,18 +3078,15 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>316</v>
+        <v>170</v>
       </c>
       <c r="C156" t="n">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="D156" t="n">
-        <v>69</v>
+        <v>1.14</v>
       </c>
       <c r="E156" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F156" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3565,18 +3095,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="C157" t="n">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="D157" t="n">
-        <v>69</v>
+        <v>1.4</v>
       </c>
       <c r="E157" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3585,18 +3112,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>318</v>
+        <v>180</v>
       </c>
       <c r="C158" t="n">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="D158" t="n">
-        <v>69</v>
+        <v>1.74</v>
       </c>
       <c r="E158" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F158" t="n">
         <v>125</v>
       </c>
     </row>
@@ -3605,18 +3129,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="C159" t="n">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="D159" t="n">
-        <v>69</v>
+        <v>2.26</v>
       </c>
       <c r="E159" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="F159" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3625,18 +3146,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="C160" t="n">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="D160" t="n">
-        <v>69</v>
+        <v>2.99</v>
       </c>
       <c r="E160" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F160" t="n">
         <v>1087</v>
       </c>
     </row>
@@ -3645,18 +3163,15 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c r="C161" t="n">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="D161" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
-      </c>
-      <c r="F161" t="n">
         <v>1666</v>
       </c>
     </row>
@@ -3665,18 +3180,15 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>322</v>
+        <v>200</v>
       </c>
       <c r="C162" t="n">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="D162" t="n">
-        <v>69</v>
+        <v>5.27</v>
       </c>
       <c r="E162" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="F162" t="n">
         <v>1123</v>
       </c>
     </row>
@@ -3685,18 +3197,15 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>323</v>
+        <v>205</v>
       </c>
       <c r="C163" t="n">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="D163" t="n">
-        <v>69</v>
+        <v>7.03</v>
       </c>
       <c r="E163" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F163" t="n">
         <v>144</v>
       </c>
     </row>
@@ -3705,18 +3214,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="C164" t="n">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="D164" t="n">
-        <v>69</v>
+        <v>9.08</v>
       </c>
       <c r="E164" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F164" t="n">
         <v>1193</v>
       </c>
     </row>
@@ -3725,18 +3231,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="C165" t="n">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="D165" t="n">
-        <v>69</v>
+        <v>11.85</v>
       </c>
       <c r="E165" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F165" t="n">
         <v>56</v>
       </c>
     </row>
@@ -3745,18 +3248,15 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="C166" t="n">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="D166" t="n">
-        <v>69</v>
+        <v>14.7</v>
       </c>
       <c r="E166" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F166" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3765,18 +3265,15 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="C167" t="n">
-        <v>225</v>
+        <v>69</v>
       </c>
       <c r="D167" t="n">
-        <v>69</v>
+        <v>18.15</v>
       </c>
       <c r="E167" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="F167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3785,18 +3282,15 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="C168" t="n">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="D168" t="n">
-        <v>69</v>
+        <v>22.16</v>
       </c>
       <c r="E168" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="F168" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3805,18 +3299,15 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="C169" t="n">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="D169" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E169" t="n">
-        <v>26</v>
-      </c>
-      <c r="F169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +3316,15 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="C170" t="n">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="D170" t="n">
-        <v>69</v>
+        <v>30.01</v>
       </c>
       <c r="E170" t="n">
-        <v>30.01</v>
-      </c>
-      <c r="F170" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3845,18 +3333,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c r="C171" t="n">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="D171" t="n">
-        <v>69</v>
+        <v>34.4</v>
       </c>
       <c r="E171" t="n">
-        <v>34.4</v>
-      </c>
-      <c r="F171" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3865,18 +3350,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="C172" t="n">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="D172" t="n">
-        <v>69</v>
+        <v>39.5</v>
       </c>
       <c r="E172" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F172" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3885,18 +3367,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="C173" t="n">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="D173" t="n">
-        <v>69</v>
+        <v>49.23</v>
       </c>
       <c r="E173" t="n">
-        <v>49.23</v>
-      </c>
-      <c r="F173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,18 +3384,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="C174" t="n">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="D174" t="n">
-        <v>69</v>
+        <v>58.99</v>
       </c>
       <c r="E174" t="n">
-        <v>58.99</v>
-      </c>
-      <c r="F174" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3925,18 +3401,15 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="C175" t="n">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="D175" t="n">
-        <v>69</v>
+        <v>79.14</v>
       </c>
       <c r="E175" t="n">
-        <v>79.14</v>
-      </c>
-      <c r="F175" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3945,18 +3418,15 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="C176" t="n">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="D176" t="n">
-        <v>69</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="F176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +3435,15 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="C177" t="n">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="D177" t="n">
-        <v>69</v>
+        <v>98.64</v>
       </c>
       <c r="E177" t="n">
-        <v>98.64</v>
-      </c>
-      <c r="F177" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3985,18 +3452,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="C178" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D178" t="n">
-        <v>97</v>
+        <v>0.42</v>
       </c>
       <c r="E178" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4005,18 +3469,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>367</v>
+        <v>145</v>
       </c>
       <c r="C179" t="n">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D179" t="n">
-        <v>97</v>
+        <v>0.84</v>
       </c>
       <c r="E179" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,18 +3486,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>368</v>
+        <v>150</v>
       </c>
       <c r="C180" t="n">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="D180" t="n">
-        <v>97</v>
+        <v>0.95</v>
       </c>
       <c r="E180" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F180" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4045,18 +3503,15 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="C181" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="D181" t="n">
-        <v>97</v>
+        <v>1.27</v>
       </c>
       <c r="E181" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="F181" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4065,18 +3520,15 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>371</v>
+        <v>165</v>
       </c>
       <c r="C182" t="n">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="D182" t="n">
-        <v>97</v>
+        <v>1.51</v>
       </c>
       <c r="E182" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F182" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4085,18 +3537,15 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>374</v>
+        <v>180</v>
       </c>
       <c r="C183" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="D183" t="n">
-        <v>97</v>
+        <v>2.84</v>
       </c>
       <c r="E183" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="F183" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4105,18 +3554,15 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="C184" t="n">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="D184" t="n">
-        <v>97</v>
+        <v>3.47</v>
       </c>
       <c r="E184" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="F184" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4125,18 +3571,15 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="C185" t="n">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="D185" t="n">
-        <v>97</v>
+        <v>4.43</v>
       </c>
       <c r="E185" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F185" t="n">
         <v>18</v>
       </c>
     </row>
@@ -4145,18 +3588,15 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="C186" t="n">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="D186" t="n">
-        <v>97</v>
+        <v>5.65</v>
       </c>
       <c r="E186" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F186" t="n">
         <v>3445</v>
       </c>
     </row>
@@ -4165,18 +3605,15 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>378</v>
+        <v>200</v>
       </c>
       <c r="C187" t="n">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="D187" t="n">
-        <v>97</v>
+        <v>7.15</v>
       </c>
       <c r="E187" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F187" t="n">
         <v>855</v>
       </c>
     </row>
@@ -4185,18 +3622,15 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>379</v>
+        <v>210</v>
       </c>
       <c r="C188" t="n">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="D188" t="n">
-        <v>97</v>
+        <v>11.25</v>
       </c>
       <c r="E188" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F188" t="n">
         <v>186</v>
       </c>
     </row>
@@ -4205,18 +3639,15 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="C189" t="n">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="D189" t="n">
-        <v>97</v>
+        <v>16.7</v>
       </c>
       <c r="E189" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="F189" t="n">
         <v>34</v>
       </c>
     </row>
@@ -4225,18 +3656,15 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>381</v>
+        <v>230</v>
       </c>
       <c r="C190" t="n">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="D190" t="n">
-        <v>97</v>
+        <v>23.85</v>
       </c>
       <c r="E190" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="F190" t="n">
         <v>124</v>
       </c>
     </row>
@@ -4245,18 +3673,15 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>382</v>
+        <v>235</v>
       </c>
       <c r="C191" t="n">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="D191" t="n">
-        <v>97</v>
+        <v>27.5</v>
       </c>
       <c r="E191" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F191" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4265,18 +3690,15 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>383</v>
+        <v>240</v>
       </c>
       <c r="C192" t="n">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="D192" t="n">
-        <v>97</v>
+        <v>31.42</v>
       </c>
       <c r="E192" t="n">
-        <v>31.42</v>
-      </c>
-      <c r="F192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,18 +3707,15 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>384</v>
+        <v>245</v>
       </c>
       <c r="C193" t="n">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="D193" t="n">
-        <v>97</v>
+        <v>35.54</v>
       </c>
       <c r="E193" t="n">
-        <v>35.54</v>
-      </c>
-      <c r="F193" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4305,18 +3724,15 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>386</v>
+        <v>255</v>
       </c>
       <c r="C194" t="n">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="D194" t="n">
-        <v>97</v>
+        <v>44.88</v>
       </c>
       <c r="E194" t="n">
-        <v>44.88</v>
-      </c>
-      <c r="F194" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4325,18 +3741,15 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>389</v>
+        <v>270</v>
       </c>
       <c r="C195" t="n">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="D195" t="n">
-        <v>97</v>
+        <v>59.45</v>
       </c>
       <c r="E195" t="n">
-        <v>59.45</v>
-      </c>
-      <c r="F195" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4345,18 +3758,15 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="C196" t="n">
-        <v>275</v>
+        <v>97</v>
       </c>
       <c r="D196" t="n">
-        <v>97</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>64.06999999999999</v>
-      </c>
-      <c r="F196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4365,18 +3775,15 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>424</v>
+        <v>150</v>
       </c>
       <c r="C197" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D197" t="n">
-        <v>125</v>
+        <v>1.37</v>
       </c>
       <c r="E197" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="F197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +3792,15 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="C198" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="D198" t="n">
-        <v>125</v>
+        <v>2.72</v>
       </c>
       <c r="E198" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="F198" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4405,18 +3809,15 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>429</v>
+        <v>175</v>
       </c>
       <c r="C199" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D199" t="n">
-        <v>125</v>
+        <v>3.25</v>
       </c>
       <c r="E199" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F199" t="n">
         <v>128</v>
       </c>
     </row>
@@ -4425,18 +3826,15 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="C200" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="D200" t="n">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
-      </c>
-      <c r="F200" t="n">
         <v>47</v>
       </c>
     </row>
@@ -4445,18 +3843,15 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>431</v>
+        <v>185</v>
       </c>
       <c r="C201" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="D201" t="n">
-        <v>125</v>
+        <v>5.05</v>
       </c>
       <c r="E201" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="F201" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4465,18 +3860,15 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>432</v>
+        <v>190</v>
       </c>
       <c r="C202" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="D202" t="n">
-        <v>125</v>
+        <v>6.1</v>
       </c>
       <c r="E202" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F202" t="n">
         <v>416</v>
       </c>
     </row>
@@ -4485,18 +3877,15 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>433</v>
+        <v>195</v>
       </c>
       <c r="C203" t="n">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="D203" t="n">
-        <v>125</v>
+        <v>7.42</v>
       </c>
       <c r="E203" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F203" t="n">
         <v>67</v>
       </c>
     </row>
@@ -4505,18 +3894,15 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="C204" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="D204" t="n">
-        <v>125</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E204" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="F204" t="n">
         <v>761</v>
       </c>
     </row>
@@ -4525,18 +3911,15 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>435</v>
+        <v>205</v>
       </c>
       <c r="C205" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D205" t="n">
-        <v>125</v>
+        <v>11.01</v>
       </c>
       <c r="E205" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="F205" t="n">
         <v>177</v>
       </c>
     </row>
@@ -4545,18 +3928,15 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>436</v>
+        <v>210</v>
       </c>
       <c r="C206" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="D206" t="n">
-        <v>125</v>
+        <v>13.3</v>
       </c>
       <c r="E206" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F206" t="n">
         <v>58</v>
       </c>
     </row>
@@ -4565,18 +3945,15 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>437</v>
+        <v>215</v>
       </c>
       <c r="C207" t="n">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="D207" t="n">
-        <v>125</v>
+        <v>15.95</v>
       </c>
       <c r="E207" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="F207" t="n">
         <v>55</v>
       </c>
     </row>
@@ -4585,18 +3962,15 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>438</v>
+        <v>220</v>
       </c>
       <c r="C208" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="D208" t="n">
-        <v>125</v>
+        <v>18.87</v>
       </c>
       <c r="E208" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="F208" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4605,18 +3979,15 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>439</v>
+        <v>225</v>
       </c>
       <c r="C209" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="D209" t="n">
-        <v>125</v>
+        <v>22.08</v>
       </c>
       <c r="E209" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="F209" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4625,18 +3996,15 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>441</v>
+        <v>235</v>
       </c>
       <c r="C210" t="n">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="D210" t="n">
-        <v>125</v>
+        <v>29.32</v>
       </c>
       <c r="E210" t="n">
-        <v>29.32</v>
-      </c>
-      <c r="F210" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4645,18 +4013,15 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>444</v>
+        <v>250</v>
       </c>
       <c r="C211" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="D211" t="n">
-        <v>125</v>
+        <v>41.5</v>
       </c>
       <c r="E211" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="F211" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4665,18 +4030,15 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>446</v>
+        <v>260</v>
       </c>
       <c r="C212" t="n">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="D212" t="n">
-        <v>125</v>
+        <v>50.58</v>
       </c>
       <c r="E212" t="n">
-        <v>50.58</v>
-      </c>
-      <c r="F212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4685,18 +4047,15 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>475</v>
+        <v>100</v>
       </c>
       <c r="C213" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D213" t="n">
-        <v>160</v>
+        <v>0.64</v>
       </c>
       <c r="E213" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F213" t="n">
         <v>1325</v>
       </c>
     </row>
@@ -4705,18 +4064,15 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="C214" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D214" t="n">
-        <v>160</v>
+        <v>0.78</v>
       </c>
       <c r="E214" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F214" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4725,18 +4081,15 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>480</v>
+        <v>125</v>
       </c>
       <c r="C215" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D215" t="n">
-        <v>160</v>
+        <v>1.1</v>
       </c>
       <c r="E215" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F215" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4745,18 +4098,15 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>482</v>
+        <v>135</v>
       </c>
       <c r="C216" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D216" t="n">
-        <v>160</v>
+        <v>1.38</v>
       </c>
       <c r="E216" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F216" t="n">
         <v>430</v>
       </c>
     </row>
@@ -4765,18 +4115,15 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>485</v>
+        <v>150</v>
       </c>
       <c r="C217" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D217" t="n">
-        <v>160</v>
+        <v>2.12</v>
       </c>
       <c r="E217" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="F217" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4785,18 +4132,15 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>487</v>
+        <v>160</v>
       </c>
       <c r="C218" t="n">
         <v>160</v>
       </c>
       <c r="D218" t="n">
-        <v>160</v>
+        <v>2.88</v>
       </c>
       <c r="E218" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F218" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4805,18 +4149,15 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="C219" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D219" t="n">
-        <v>160</v>
+        <v>4.07</v>
       </c>
       <c r="E219" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="F219" t="n">
         <v>103</v>
       </c>
     </row>
@@ -4825,18 +4166,15 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>490</v>
+        <v>175</v>
       </c>
       <c r="C220" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D220" t="n">
-        <v>160</v>
+        <v>4.95</v>
       </c>
       <c r="E220" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F220" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4845,18 +4183,15 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>491</v>
+        <v>180</v>
       </c>
       <c r="C221" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D221" t="n">
-        <v>160</v>
+        <v>5.9</v>
       </c>
       <c r="E221" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F221" t="n">
         <v>1209</v>
       </c>
     </row>
@@ -4865,18 +4200,15 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>492</v>
+        <v>185</v>
       </c>
       <c r="C222" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D222" t="n">
-        <v>160</v>
+        <v>6.35</v>
       </c>
       <c r="E222" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="F222" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4885,18 +4217,15 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="C223" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D223" t="n">
-        <v>160</v>
+        <v>8.25</v>
       </c>
       <c r="E223" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="F223" t="n">
         <v>233</v>
       </c>
     </row>
@@ -4905,18 +4234,15 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>494</v>
+        <v>195</v>
       </c>
       <c r="C224" t="n">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D224" t="n">
-        <v>160</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="F224" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4925,18 +4251,15 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>495</v>
+        <v>200</v>
       </c>
       <c r="C225" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D225" t="n">
-        <v>160</v>
+        <v>11.71</v>
       </c>
       <c r="E225" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="F225" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4945,18 +4268,15 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>496</v>
+        <v>210</v>
       </c>
       <c r="C226" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="D226" t="n">
-        <v>160</v>
+        <v>16.1</v>
       </c>
       <c r="E226" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F226" t="n">
         <v>82</v>
       </c>
     </row>
@@ -4965,18 +4285,15 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="C227" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="D227" t="n">
-        <v>160</v>
+        <v>21.55</v>
       </c>
       <c r="E227" t="n">
-        <v>21.55</v>
-      </c>
-      <c r="F227" t="n">
         <v>59</v>
       </c>
     </row>
@@ -4985,18 +4302,15 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>498</v>
+        <v>230</v>
       </c>
       <c r="C228" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="D228" t="n">
-        <v>160</v>
+        <v>28.05</v>
       </c>
       <c r="E228" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="F228" t="n">
         <v>28</v>
       </c>
     </row>
@@ -5005,18 +4319,15 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>501</v>
+        <v>260</v>
       </c>
       <c r="C229" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="D229" t="n">
-        <v>160</v>
+        <v>51.8</v>
       </c>
       <c r="E229" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F229" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5025,18 +4336,15 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="C230" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D230" t="n">
-        <v>188</v>
+        <v>4.95</v>
       </c>
       <c r="E230" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F230" t="n">
         <v>108</v>
       </c>
     </row>
@@ -5045,18 +4353,15 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="C231" t="n">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D231" t="n">
-        <v>188</v>
+        <v>13.15</v>
       </c>
       <c r="E231" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="F231" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5065,18 +4370,15 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>522</v>
+        <v>210</v>
       </c>
       <c r="C232" t="n">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D232" t="n">
-        <v>188</v>
+        <v>17.65</v>
       </c>
       <c r="E232" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="F232" t="n">
         <v>445</v>
       </c>
     </row>
@@ -5085,18 +4387,15 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>525</v>
+        <v>40</v>
       </c>
       <c r="C233" t="n">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D233" t="n">
-        <v>223</v>
+        <v>0.1</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F233" t="n">
         <v>59</v>
       </c>
     </row>
@@ -5105,18 +4404,15 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>531</v>
+        <v>100</v>
       </c>
       <c r="C234" t="n">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="D234" t="n">
-        <v>223</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F234" t="n">
         <v>56</v>
       </c>
     </row>
@@ -5125,18 +4421,15 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>532</v>
+        <v>105</v>
       </c>
       <c r="C235" t="n">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="D235" t="n">
-        <v>223</v>
+        <v>1.05</v>
       </c>
       <c r="E235" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F235" t="n">
         <v>57</v>
       </c>
     </row>
@@ -5145,18 +4438,15 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>533</v>
+        <v>110</v>
       </c>
       <c r="C236" t="n">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="D236" t="n">
-        <v>223</v>
+        <v>1.19</v>
       </c>
       <c r="E236" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="F236" t="n">
         <v>41</v>
       </c>
     </row>
@@ -5165,18 +4455,15 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>534</v>
+        <v>115</v>
       </c>
       <c r="C237" t="n">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="D237" t="n">
-        <v>223</v>
+        <v>1.32</v>
       </c>
       <c r="E237" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="F237" t="n">
         <v>145</v>
       </c>
     </row>
@@ -5185,18 +4472,15 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>535</v>
+        <v>120</v>
       </c>
       <c r="C238" t="n">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="D238" t="n">
-        <v>223</v>
+        <v>1.49</v>
       </c>
       <c r="E238" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="F238" t="n">
         <v>112</v>
       </c>
     </row>
@@ -5205,18 +4489,15 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>536</v>
+        <v>125</v>
       </c>
       <c r="C239" t="n">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="D239" t="n">
-        <v>223</v>
+        <v>1.67</v>
       </c>
       <c r="E239" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="F239" t="n">
         <v>49</v>
       </c>
     </row>
@@ -5225,18 +4506,15 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>537</v>
+        <v>130</v>
       </c>
       <c r="C240" t="n">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="D240" t="n">
-        <v>223</v>
+        <v>1.87</v>
       </c>
       <c r="E240" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F240" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5245,18 +4523,15 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>538</v>
+        <v>135</v>
       </c>
       <c r="C241" t="n">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="D241" t="n">
-        <v>223</v>
+        <v>2.1</v>
       </c>
       <c r="E241" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5265,18 +4540,15 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>541</v>
+        <v>150</v>
       </c>
       <c r="C242" t="n">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="D242" t="n">
-        <v>223</v>
+        <v>3.25</v>
       </c>
       <c r="E242" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F242" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5285,18 +4557,15 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>543</v>
+        <v>160</v>
       </c>
       <c r="C243" t="n">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="D243" t="n">
-        <v>223</v>
+        <v>4.37</v>
       </c>
       <c r="E243" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F243" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5305,18 +4574,15 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>544</v>
+        <v>165</v>
       </c>
       <c r="C244" t="n">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="D244" t="n">
-        <v>223</v>
+        <v>5.2</v>
       </c>
       <c r="E244" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F244" t="n">
         <v>140</v>
       </c>
     </row>
@@ -5325,18 +4591,15 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>545</v>
+        <v>170</v>
       </c>
       <c r="C245" t="n">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D245" t="n">
-        <v>223</v>
+        <v>6.02</v>
       </c>
       <c r="E245" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F245" t="n">
         <v>133</v>
       </c>
     </row>
@@ -5345,18 +4608,15 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>546</v>
+        <v>175</v>
       </c>
       <c r="C246" t="n">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="D246" t="n">
-        <v>223</v>
+        <v>7.1</v>
       </c>
       <c r="E246" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F246" t="n">
         <v>117</v>
       </c>
     </row>
@@ -5365,18 +4625,15 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>547</v>
+        <v>180</v>
       </c>
       <c r="C247" t="n">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="D247" t="n">
-        <v>223</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E247" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F247" t="n">
         <v>21</v>
       </c>
     </row>
@@ -5385,18 +4642,15 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>548</v>
+        <v>185</v>
       </c>
       <c r="C248" t="n">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="D248" t="n">
-        <v>223</v>
+        <v>9.65</v>
       </c>
       <c r="E248" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F248" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5405,18 +4659,15 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>549</v>
+        <v>190</v>
       </c>
       <c r="C249" t="n">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="D249" t="n">
-        <v>223</v>
+        <v>11.3</v>
       </c>
       <c r="E249" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F249" t="n">
         <v>56</v>
       </c>
     </row>
@@ -5425,18 +4676,15 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>550</v>
+        <v>195</v>
       </c>
       <c r="C250" t="n">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="D250" t="n">
-        <v>223</v>
+        <v>12.94</v>
       </c>
       <c r="E250" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="F250" t="n">
         <v>347</v>
       </c>
     </row>
@@ -5445,18 +4693,15 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>551</v>
+        <v>200</v>
       </c>
       <c r="C251" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="D251" t="n">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="E251" t="n">
-        <v>15</v>
-      </c>
-      <c r="F251" t="n">
         <v>119</v>
       </c>
     </row>
@@ -5465,18 +4710,15 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>552</v>
+        <v>205</v>
       </c>
       <c r="C252" t="n">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="D252" t="n">
-        <v>223</v>
+        <v>17.15</v>
       </c>
       <c r="E252" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="F252" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5485,18 +4727,15 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>553</v>
+        <v>210</v>
       </c>
       <c r="C253" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D253" t="n">
-        <v>223</v>
+        <v>19.51</v>
       </c>
       <c r="E253" t="n">
-        <v>19.51</v>
-      </c>
-      <c r="F253" t="n">
         <v>123</v>
       </c>
     </row>
@@ -5505,18 +4744,15 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>554</v>
+        <v>215</v>
       </c>
       <c r="C254" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D254" t="n">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="E254" t="n">
-        <v>22</v>
-      </c>
-      <c r="F254" t="n">
         <v>27</v>
       </c>
     </row>
@@ -5525,18 +4761,15 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>555</v>
+        <v>220</v>
       </c>
       <c r="C255" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D255" t="n">
-        <v>223</v>
+        <v>24.9</v>
       </c>
       <c r="E255" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="F255" t="n">
         <v>134</v>
       </c>
     </row>
@@ -5545,18 +4778,15 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>556</v>
+        <v>225</v>
       </c>
       <c r="C256" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D256" t="n">
-        <v>223</v>
+        <v>27.92</v>
       </c>
       <c r="E256" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="F256" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5565,18 +4795,15 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>557</v>
+        <v>230</v>
       </c>
       <c r="C257" t="n">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D257" t="n">
-        <v>223</v>
+        <v>31.3</v>
       </c>
       <c r="E257" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F257" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5585,18 +4812,15 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>558</v>
+        <v>235</v>
       </c>
       <c r="C258" t="n">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D258" t="n">
-        <v>223</v>
+        <v>34.35</v>
       </c>
       <c r="E258" t="n">
-        <v>34.35</v>
-      </c>
-      <c r="F258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5605,18 +4829,15 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>590</v>
+        <v>175</v>
       </c>
       <c r="C259" t="n">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="D259" t="n">
-        <v>279</v>
+        <v>9.5</v>
       </c>
       <c r="E259" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5625,18 +4846,15 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>591</v>
+        <v>180</v>
       </c>
       <c r="C260" t="n">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="D260" t="n">
-        <v>279</v>
+        <v>10.91</v>
       </c>
       <c r="E260" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="F260" t="n">
         <v>1263</v>
       </c>
     </row>
@@ -5645,18 +4863,15 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>592</v>
+        <v>185</v>
       </c>
       <c r="C261" t="n">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D261" t="n">
-        <v>279</v>
+        <v>12.5</v>
       </c>
       <c r="E261" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F261" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5665,18 +4880,15 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>608</v>
+        <v>165</v>
       </c>
       <c r="C262" t="n">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="D262" t="n">
-        <v>370</v>
+        <v>10.3</v>
       </c>
       <c r="E262" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F262" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5685,18 +4897,15 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>610</v>
+        <v>175</v>
       </c>
       <c r="C263" t="n">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="D263" t="n">
-        <v>370</v>
+        <v>13.13</v>
       </c>
       <c r="E263" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F263" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5705,18 +4914,15 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>611</v>
+        <v>180</v>
       </c>
       <c r="C264" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="D264" t="n">
-        <v>370</v>
+        <v>14.65</v>
       </c>
       <c r="E264" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="F264" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5725,18 +4931,15 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>612</v>
+        <v>185</v>
       </c>
       <c r="C265" t="n">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="D265" t="n">
-        <v>370</v>
+        <v>16.5</v>
       </c>
       <c r="E265" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F265" t="n">
         <v>42</v>
       </c>
     </row>
@@ -5745,18 +4948,15 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>613</v>
+        <v>190</v>
       </c>
       <c r="C266" t="n">
-        <v>190</v>
+        <v>370</v>
       </c>
       <c r="D266" t="n">
-        <v>370</v>
+        <v>18.29</v>
       </c>
       <c r="E266" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="F266" t="n">
         <v>81</v>
       </c>
     </row>
@@ -5765,18 +4965,15 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>615</v>
+        <v>200</v>
       </c>
       <c r="C267" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="D267" t="n">
-        <v>370</v>
+        <v>22.65</v>
       </c>
       <c r="E267" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="F267" t="n">
         <v>277</v>
       </c>
     </row>
@@ -5785,18 +4982,15 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>616</v>
+        <v>205</v>
       </c>
       <c r="C268" t="n">
-        <v>205</v>
+        <v>370</v>
       </c>
       <c r="D268" t="n">
-        <v>370</v>
+        <v>25.2</v>
       </c>
       <c r="E268" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="F268" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5805,18 +4999,15 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>617</v>
+        <v>210</v>
       </c>
       <c r="C269" t="n">
-        <v>210</v>
+        <v>370</v>
       </c>
       <c r="D269" t="n">
-        <v>370</v>
+        <v>27.65</v>
       </c>
       <c r="E269" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="F269" t="n">
         <v>35</v>
       </c>
     </row>
@@ -5825,18 +5016,15 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>619</v>
+        <v>220</v>
       </c>
       <c r="C270" t="n">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="D270" t="n">
-        <v>370</v>
+        <v>33.15</v>
       </c>
       <c r="E270" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="F270" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5845,18 +5033,15 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>625</v>
+        <v>250</v>
       </c>
       <c r="C271" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="D271" t="n">
-        <v>370</v>
+        <v>52.85</v>
       </c>
       <c r="E271" t="n">
-        <v>52.85</v>
-      </c>
-      <c r="F271" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5865,18 +5050,15 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>626</v>
+        <v>255</v>
       </c>
       <c r="C272" t="n">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="D272" t="n">
-        <v>370</v>
+        <v>56.55</v>
       </c>
       <c r="E272" t="n">
-        <v>56.55</v>
-      </c>
-      <c r="F272" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5885,18 +5067,15 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>635</v>
+        <v>300</v>
       </c>
       <c r="C273" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="D273" t="n">
-        <v>370</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="E273" t="n">
-        <v>93.34999999999999</v>
-      </c>
-      <c r="F273" t="n">
         <v>50</v>
       </c>
     </row>
@@ -5905,18 +5084,15 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>636</v>
+        <v>310</v>
       </c>
       <c r="C274" t="n">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="D274" t="n">
-        <v>370</v>
+        <v>102.66</v>
       </c>
       <c r="E274" t="n">
-        <v>102.66</v>
-      </c>
-      <c r="F274" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5925,18 +5101,15 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>638</v>
+        <v>330</v>
       </c>
       <c r="C275" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="D275" t="n">
-        <v>370</v>
+        <v>121.3</v>
       </c>
       <c r="E275" t="n">
-        <v>121.3</v>
-      </c>
-      <c r="F275" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5945,18 +5118,15 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>652</v>
+        <v>100</v>
       </c>
       <c r="C276" t="n">
-        <v>100</v>
+        <v>587</v>
       </c>
       <c r="D276" t="n">
-        <v>587</v>
+        <v>3.55</v>
       </c>
       <c r="E276" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F276" t="n">
         <v>31</v>
       </c>
     </row>
@@ -5965,18 +5135,15 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>653</v>
+        <v>105</v>
       </c>
       <c r="C277" t="n">
-        <v>105</v>
+        <v>587</v>
       </c>
       <c r="D277" t="n">
-        <v>587</v>
+        <v>4.1</v>
       </c>
       <c r="E277" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F277" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5985,18 +5152,15 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>655</v>
+        <v>115</v>
       </c>
       <c r="C278" t="n">
-        <v>115</v>
+        <v>587</v>
       </c>
       <c r="D278" t="n">
-        <v>587</v>
+        <v>5.25</v>
       </c>
       <c r="E278" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="F278" t="n">
         <v>52</v>
       </c>
     </row>
@@ -6005,18 +5169,15 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>656</v>
+        <v>120</v>
       </c>
       <c r="C279" t="n">
-        <v>120</v>
+        <v>587</v>
       </c>
       <c r="D279" t="n">
-        <v>587</v>
+        <v>6</v>
       </c>
       <c r="E279" t="n">
-        <v>6</v>
-      </c>
-      <c r="F279" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6025,18 +5186,15 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>658</v>
+        <v>130</v>
       </c>
       <c r="C280" t="n">
-        <v>130</v>
+        <v>587</v>
       </c>
       <c r="D280" t="n">
-        <v>587</v>
+        <v>7.7</v>
       </c>
       <c r="E280" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,18 +5203,15 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>659</v>
+        <v>135</v>
       </c>
       <c r="C281" t="n">
-        <v>135</v>
+        <v>587</v>
       </c>
       <c r="D281" t="n">
-        <v>587</v>
+        <v>8.75</v>
       </c>
       <c r="E281" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="F281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6065,18 +5220,15 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="C282" t="n">
-        <v>140</v>
+        <v>587</v>
       </c>
       <c r="D282" t="n">
-        <v>587</v>
+        <v>9.75</v>
       </c>
       <c r="E282" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="F282" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6085,18 +5237,15 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>666</v>
+        <v>170</v>
       </c>
       <c r="C283" t="n">
-        <v>170</v>
+        <v>587</v>
       </c>
       <c r="D283" t="n">
-        <v>587</v>
+        <v>18.6</v>
       </c>
       <c r="E283" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F283" t="n">
         <v>31</v>
       </c>
     </row>
@@ -6105,18 +5254,15 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>667</v>
+        <v>175</v>
       </c>
       <c r="C284" t="n">
-        <v>175</v>
+        <v>587</v>
       </c>
       <c r="D284" t="n">
-        <v>587</v>
+        <v>20.45</v>
       </c>
       <c r="E284" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="F284" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6125,18 +5271,15 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>668</v>
+        <v>180</v>
       </c>
       <c r="C285" t="n">
-        <v>180</v>
+        <v>587</v>
       </c>
       <c r="D285" t="n">
-        <v>587</v>
+        <v>22.4</v>
       </c>
       <c r="E285" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F285" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6145,18 +5288,15 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>669</v>
+        <v>185</v>
       </c>
       <c r="C286" t="n">
-        <v>185</v>
+        <v>587</v>
       </c>
       <c r="D286" t="n">
-        <v>587</v>
+        <v>24.65</v>
       </c>
       <c r="E286" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="F286" t="n">
         <v>500</v>
       </c>
     </row>
@@ -6165,18 +5305,15 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>670</v>
+        <v>190</v>
       </c>
       <c r="C287" t="n">
-        <v>190</v>
+        <v>587</v>
       </c>
       <c r="D287" t="n">
-        <v>587</v>
+        <v>26.75</v>
       </c>
       <c r="E287" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="F287" t="n">
         <v>1178</v>
       </c>
     </row>
@@ -6185,18 +5322,15 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>672</v>
+        <v>200</v>
       </c>
       <c r="C288" t="n">
-        <v>200</v>
+        <v>587</v>
       </c>
       <c r="D288" t="n">
-        <v>587</v>
+        <v>31.6</v>
       </c>
       <c r="E288" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F288" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6205,18 +5339,15 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>673</v>
+        <v>210</v>
       </c>
       <c r="C289" t="n">
-        <v>210</v>
+        <v>587</v>
       </c>
       <c r="D289" t="n">
-        <v>587</v>
+        <v>36.53</v>
       </c>
       <c r="E289" t="n">
-        <v>36.53</v>
-      </c>
-      <c r="F289" t="n">
         <v>1031</v>
       </c>
     </row>
@@ -6225,18 +5356,15 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>674</v>
+        <v>220</v>
       </c>
       <c r="C290" t="n">
-        <v>220</v>
+        <v>587</v>
       </c>
       <c r="D290" t="n">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="E290" t="n">
-        <v>42</v>
-      </c>
-      <c r="F290" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6245,18 +5373,15 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>675</v>
+        <v>230</v>
       </c>
       <c r="C291" t="n">
-        <v>230</v>
+        <v>587</v>
       </c>
       <c r="D291" t="n">
-        <v>587</v>
+        <v>48.15</v>
       </c>
       <c r="E291" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="F291" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6265,18 +5390,15 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>676</v>
+        <v>235</v>
       </c>
       <c r="C292" t="n">
-        <v>235</v>
+        <v>587</v>
       </c>
       <c r="D292" t="n">
-        <v>587</v>
+        <v>51.4</v>
       </c>
       <c r="E292" t="n">
-        <v>51.4</v>
-      </c>
-      <c r="F292" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6285,18 +5407,15 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>677</v>
+        <v>240</v>
       </c>
       <c r="C293" t="n">
-        <v>240</v>
+        <v>587</v>
       </c>
       <c r="D293" t="n">
-        <v>587</v>
+        <v>53.85</v>
       </c>
       <c r="E293" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="F293" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6305,18 +5424,15 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>678</v>
+        <v>245</v>
       </c>
       <c r="C294" t="n">
-        <v>245</v>
+        <v>587</v>
       </c>
       <c r="D294" t="n">
-        <v>587</v>
+        <v>57.85</v>
       </c>
       <c r="E294" t="n">
-        <v>57.85</v>
-      </c>
-      <c r="F294" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6325,18 +5441,15 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>679</v>
+        <v>250</v>
       </c>
       <c r="C295" t="n">
-        <v>250</v>
+        <v>587</v>
       </c>
       <c r="D295" t="n">
-        <v>587</v>
+        <v>60.5</v>
       </c>
       <c r="E295" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="F295" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6345,18 +5458,15 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>682</v>
+        <v>265</v>
       </c>
       <c r="C296" t="n">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="D296" t="n">
-        <v>587</v>
+        <v>71.37</v>
       </c>
       <c r="E296" t="n">
-        <v>71.37</v>
-      </c>
-      <c r="F296" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6365,18 +5475,15 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>684</v>
+        <v>275</v>
       </c>
       <c r="C297" t="n">
-        <v>275</v>
+        <v>587</v>
       </c>
       <c r="D297" t="n">
-        <v>587</v>
+        <v>78.86</v>
       </c>
       <c r="E297" t="n">
-        <v>78.86</v>
-      </c>
-      <c r="F297" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6385,18 +5492,15 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>689</v>
+        <v>300</v>
       </c>
       <c r="C298" t="n">
-        <v>300</v>
+        <v>587</v>
       </c>
       <c r="D298" t="n">
-        <v>587</v>
+        <v>99.8</v>
       </c>
       <c r="E298" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6405,18 +5509,15 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>708</v>
+        <v>100</v>
       </c>
       <c r="C299" t="n">
-        <v>100</v>
+        <v>734</v>
       </c>
       <c r="D299" t="n">
-        <v>734</v>
+        <v>4.65</v>
       </c>
       <c r="E299" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="F299" t="n">
         <v>231</v>
       </c>
     </row>
@@ -6425,18 +5526,15 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>714</v>
+        <v>130</v>
       </c>
       <c r="C300" t="n">
-        <v>130</v>
+        <v>734</v>
       </c>
       <c r="D300" t="n">
-        <v>734</v>
+        <v>10.15</v>
       </c>
       <c r="E300" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6445,18 +5543,15 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>720</v>
+        <v>160</v>
       </c>
       <c r="C301" t="n">
-        <v>160</v>
+        <v>734</v>
       </c>
       <c r="D301" t="n">
-        <v>734</v>
+        <v>18</v>
       </c>
       <c r="E301" t="n">
-        <v>18</v>
-      </c>
-      <c r="F301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6465,18 +5560,15 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>721</v>
+        <v>165</v>
       </c>
       <c r="C302" t="n">
-        <v>165</v>
+        <v>734</v>
       </c>
       <c r="D302" t="n">
-        <v>734</v>
+        <v>20</v>
       </c>
       <c r="E302" t="n">
-        <v>20</v>
-      </c>
-      <c r="F302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6485,18 +5577,15 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>729</v>
+        <v>210</v>
       </c>
       <c r="C303" t="n">
-        <v>210</v>
+        <v>734</v>
       </c>
       <c r="D303" t="n">
-        <v>734</v>
+        <v>40.17</v>
       </c>
       <c r="E303" t="n">
-        <v>40.17</v>
-      </c>
-      <c r="F303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6505,18 +5594,15 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>731</v>
+        <v>220</v>
       </c>
       <c r="C304" t="n">
-        <v>220</v>
+        <v>734</v>
       </c>
       <c r="D304" t="n">
-        <v>734</v>
+        <v>46</v>
       </c>
       <c r="E304" t="n">
-        <v>46</v>
-      </c>
-      <c r="F304" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6525,18 +5611,15 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>733</v>
+        <v>230</v>
       </c>
       <c r="C305" t="n">
-        <v>230</v>
+        <v>734</v>
       </c>
       <c r="D305" t="n">
-        <v>734</v>
+        <v>51.6</v>
       </c>
       <c r="E305" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="F305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,18 +5628,15 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>737</v>
+        <v>250</v>
       </c>
       <c r="C306" t="n">
-        <v>250</v>
+        <v>734</v>
       </c>
       <c r="D306" t="n">
-        <v>734</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="E306" t="n">
-        <v>64.65000000000001</v>
-      </c>
-      <c r="F306" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6565,18 +5645,15 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>739</v>
+        <v>260</v>
       </c>
       <c r="C307" t="n">
-        <v>260</v>
+        <v>734</v>
       </c>
       <c r="D307" t="n">
-        <v>734</v>
+        <v>72.5</v>
       </c>
       <c r="E307" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F307" t="n">
         <v>26</v>
       </c>
     </row>
